--- a/console/Networking/iaas-network/routerMixinsXlsx/components/layer/layer.xlsx
+++ b/console/Networking/iaas-network/routerMixinsXlsx/components/layer/layer.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1200,18 +1205,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘Available subnet list for association is</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Error'</t>
     </r>
   </si>
@@ -1269,6 +1262,10 @@
   </si>
   <si>
     <t>Confirm'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The data of available subnet list for association are'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,7 +1319,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1661,17 +1658,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C16" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.36328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.6328125" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1701,10 +1698,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1712,10 +1709,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1734,10 +1731,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1745,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +1756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +1778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1800,10 +1797,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,10 +1808,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1822,10 +1819,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1877,10 +1874,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1902,7 +1899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +1910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1943,10 +1940,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1954,10 +1951,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1965,10 +1962,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1976,10 +1973,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2012,7 +2009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2031,10 +2028,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2042,10 +2039,10 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2056,18 +2053,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2075,10 +2072,10 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2086,12 +2083,13 @@
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B38" numberStoredAsText="1"/>
   </ignoredErrors>
